--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1688212.066723207</v>
+        <v>1792391.701174278</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.38185492767447</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>94.81275980261576</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.90049365549007</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>238.7368475094337</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>237.3423628479711</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>132.9870153438515</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>119.443235012896</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5.417911179179379</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>19.69315952755335</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>52.72583184004514</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>127.3165365479904</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>130.2933877777588</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1771,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272922</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>176.7621441121407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.8420267255964</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>111.321323070213</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>261.8890829640569</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>151.3113851298092</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>7.602497644399061</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>55.83068150864422</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>18.70843787977307</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>130.7812597870363</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>176.76214411214</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>71.60395572454149</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>106.997776813539</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>696.2582702654239</v>
+        <v>2392.599276780831</v>
       </c>
       <c r="C4" t="n">
-        <v>527.322087337517</v>
+        <v>2223.663093852924</v>
       </c>
       <c r="D4" t="n">
-        <v>527.322087337517</v>
+        <v>2073.546454440589</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>1925.633360858196</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>1778.743413360285</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1906.182938335472</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1906.182938335472</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>1684.416322904998</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>1395.313456030642</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V4" t="n">
-        <v>1395.313456030642</v>
+        <v>3084.457490791562</v>
       </c>
       <c r="W4" t="n">
-        <v>1105.896285993681</v>
+        <v>2795.040320754601</v>
       </c>
       <c r="X4" t="n">
-        <v>877.9067350956636</v>
+        <v>2795.040320754601</v>
       </c>
       <c r="Y4" t="n">
-        <v>877.9067350956636</v>
+        <v>2574.247741611071</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1901.535346136984</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1532.572829196572</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1174.307130589822</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X5" t="n">
-        <v>2678.274518176917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2288.135186201106</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>652.894418388452</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="C7" t="n">
-        <v>652.894418388452</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="D7" t="n">
-        <v>502.7777789761162</v>
+        <v>219.8978475693032</v>
       </c>
       <c r="E7" t="n">
-        <v>354.8646853937231</v>
+        <v>71.98475398691008</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>71.98475398691008</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>71.98475398691008</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>71.98475398691008</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.676548429999</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>873.6869975319821</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.894418388452</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4799,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3305.713741278308</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3099.73599366253</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3099.73599366253</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>3099.73599366253</v>
       </c>
       <c r="W8" t="n">
-        <v>2735.306770649777</v>
+        <v>2746.967338392416</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,16 +4871,16 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,28 +4889,28 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.171619808316</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1514.16872406905</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.065857194694</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>970.3813689888068</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>680.9641989518461</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>680.9641989518461</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>460.171619808316</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5042,19 +5044,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,19 +5363,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1050.315828159286</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="17">
@@ -5598,19 +5600,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961267</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,52 +5983,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118212</v>
       </c>
       <c r="K24" t="n">
-        <v>251.5626541092265</v>
+        <v>2716.927329289433</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249853</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>3809.631423131743</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>4437.22938668635</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6311,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>3113.560578231862</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>2944.624395303955</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>4288.092831346496</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>4288.092831346496</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>4033.40834314061</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>3743.991173103649</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>3516.001622205632</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>3295.209043062102</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6454,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>2815.530845237133</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>4279.13832500757</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>3990.063098351768</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>3735.378610145881</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>3445.96144010892</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407056</v>
+        <v>3217.971889210903</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>2997.179310067373</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>3229.995673940461</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998291</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998291</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>194.8007783998291</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>3632.436717914231</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>3411.644138770701</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,70 +7071,70 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558406</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630499</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D37" t="n">
-        <v>2504.882831151425</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E37" t="n">
-        <v>2504.882831151425</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151425</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430193</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X37" t="n">
         <v>3160.164713532175</v>
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,19 +7192,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>3307.443412409907</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>3138.507229482</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>2988.390590069664</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>2840.477496487271</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>2693.587548989361</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>3709.884456383676</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>3709.884456383676</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>3489.091877240146</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,28 +7423,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7497,19 +7499,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517213</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,64 +7545,64 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
         <v>2018.514925172274</v>
@@ -7640,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,25 +7663,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2223.769289033212</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.37549921168727</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>132.6809716109946</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>69.70496293143164</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>24.63391537253409</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.09406519747907</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>218.1071577446381</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>111.4161395899836</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409392967</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409392964</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>34.74287850523257</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>180.5336875992865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>179.1866975757051</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320151</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="16">
@@ -26320,40 +26322,40 @@
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907542</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
@@ -26436,13 +26438,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26451,13 +26453,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975269.3345137883</v>
+        <v>-975269.3345137885</v>
       </c>
       <c r="C6" t="n">
         <v>353475.4112138043</v>
       </c>
       <c r="D6" t="n">
-        <v>353475.4112138044</v>
+        <v>353475.4112138043</v>
       </c>
       <c r="E6" t="n">
-        <v>104682.1550476489</v>
+        <v>104682.155047649</v>
       </c>
       <c r="F6" t="n">
-        <v>430094.6168550045</v>
+        <v>430094.616855004</v>
       </c>
       <c r="G6" t="n">
-        <v>430094.6168550042</v>
+        <v>430094.6168550039</v>
       </c>
       <c r="H6" t="n">
         <v>430094.6168550044</v>
       </c>
       <c r="I6" t="n">
-        <v>430094.6168550045</v>
+        <v>430094.6168550039</v>
       </c>
       <c r="J6" t="n">
-        <v>212563.4144577269</v>
+        <v>212563.4144577266</v>
       </c>
       <c r="K6" t="n">
-        <v>430094.6168550044</v>
+        <v>430094.6168550039</v>
       </c>
       <c r="L6" t="n">
-        <v>430094.6168550038</v>
+        <v>430094.6168550042</v>
       </c>
       <c r="M6" t="n">
-        <v>345039.5889194924</v>
+        <v>345039.588919492</v>
       </c>
       <c r="N6" t="n">
-        <v>430094.6168550042</v>
+        <v>430094.616855004</v>
       </c>
       <c r="O6" t="n">
-        <v>430094.6168550043</v>
+        <v>430094.616855004</v>
       </c>
       <c r="P6" t="n">
-        <v>430094.6168550043</v>
+        <v>430094.6168550039</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,31 +26807,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>349.8910368433331</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>68.03165901455728</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>13.40079581439431</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>144.5880072242907</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>253.2509233122021</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.97781301003521</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>90.9345092306587</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>89.49460226062249</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>296.5151368773679</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>19.11742609857878</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>89.2555614984104</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28536,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -29101,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31607,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31841,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,13 +32320,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>200.4500263280935</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779087</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>441.0292693655512</v>
+        <v>614.7544723218302</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>303.4297552732306</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>466.5925882502527</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>66.47561891376326</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>302.474889585677</v>
+        <v>476.200092541956</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>160.8335108287862</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>332.6181808359224</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792391.701174278</v>
+        <v>1788379.091160286</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>35.52360802547854</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>94.81275980261576</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>238.7368475094337</v>
+        <v>42.86209348694693</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>92.72329049755739</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -955,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>132.9870153438515</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5.417911179179379</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>27.87679665314561</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>19.69315952755335</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>168.5177247035057</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>127.3165365479904</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>171.2900082150275</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>80.08971311158757</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>19.72264368952145</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272922</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8420267255964</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>111.321323070213</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>153.5899618586515</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>26.13627195705873</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>151.3113851298092</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>1.839588425940237</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>55.83068150864422</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>78.68827782033955</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.9742741983392</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>130.7812597870363</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>106.997776813539</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1268.033402877527</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2392.599276780831</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>2223.663093852924</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>2073.546454440589</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1925.633360858196</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1778.743413360285</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735004</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.605821609171</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>3084.457490791562</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="W4" t="n">
-        <v>2795.040320754601</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="X4" t="n">
-        <v>2795.040320754601</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y4" t="n">
-        <v>2574.247741611071</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4567,22 +4567,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.09759726723</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2866.09759726723</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2866.09759726723</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.0144869816389</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>370.0144869816389</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>219.8978475693032</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>71.98475398691008</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>71.98475398691008</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>71.98475398691008</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>71.98475398691008</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1899.13616763077</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1644.451679424883</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>1127.044958489905</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.0144869816389</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3305.713741278308</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3099.73599366253</v>
+        <v>3155.385897666236</v>
       </c>
       <c r="U8" t="n">
-        <v>3099.73599366253</v>
+        <v>3155.385897666236</v>
       </c>
       <c r="V8" t="n">
-        <v>3099.73599366253</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="W8" t="n">
-        <v>2746.967338392416</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X8" t="n">
-        <v>2373.501580131336</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.8175152271517</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8175152271517</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>362.8175152271517</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1754.274337770284</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1465.171470895927</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1210.48698269004</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>921.0698126530797</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.8175152271517</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="11">
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5293,28 +5293,28 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290468</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>632.3401009508116</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>484.4270073684185</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>337.5370598705081</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W16" t="n">
-        <v>1278.305379057304</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X16" t="n">
-        <v>1050.315828159286</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159286</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="17">
@@ -5506,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2267.47159895366</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
@@ -6007,19 +6007,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6031,10 +6031,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289433</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3809.631423131743</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4437.22938668635</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3113.560578231862</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>2944.624395303955</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.50775589162</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.092831346496</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>4288.092831346496</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>4033.40834314061</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>3743.991173103649</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>3516.001622205632</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>3295.209043062102</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6481,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2815.530845237133</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>2646.594662309226</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>2646.594662309226</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.594662309226</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4279.13832500757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3990.063098351768</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3735.378610145881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3445.96144010892</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3217.971889210903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>2997.179310067373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>2854.44064873475</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3229.995673940461</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3860.426268812248</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X34" t="n">
-        <v>3632.436717914231</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y34" t="n">
-        <v>3411.644138770701</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,16 +7265,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3307.443412409907</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>3138.507229482</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>2988.390590069664</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>2840.477496487271</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>2693.587548989361</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420637</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3999.301626420637</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3709.884456383676</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>3709.884456383676</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>3489.091877240146</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7496,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>68.52575990662478</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>145.8014946027474</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>132.6809716109946</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>69.70496293143164</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>66.09406519747907</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>250.2980548978878</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>111.4161395899836</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>207.8347205162515</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409392964</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.74287850523257</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>179.1866975757051</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880491.4179320151</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="13">
@@ -26319,31 +26319,31 @@
         <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907538</v>
-      </c>
       <c r="G2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907538</v>
@@ -26352,10 +26352,10 @@
         <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
+        <v>92793.842883194</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319398</v>
       </c>
-      <c r="D4" t="n">
-        <v>92793.84288319405</v>
-      </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
@@ -26527,43 +26527,43 @@
         <v>353475.4112138043</v>
       </c>
       <c r="D6" t="n">
-        <v>353475.4112138043</v>
+        <v>353475.411213804</v>
       </c>
       <c r="E6" t="n">
-        <v>104682.155047649</v>
+        <v>104334.775793292</v>
       </c>
       <c r="F6" t="n">
-        <v>430094.616855004</v>
+        <v>429747.2376006473</v>
       </c>
       <c r="G6" t="n">
-        <v>430094.6168550039</v>
+        <v>429747.2376006472</v>
       </c>
       <c r="H6" t="n">
-        <v>430094.6168550044</v>
+        <v>429747.2376006472</v>
       </c>
       <c r="I6" t="n">
-        <v>430094.6168550039</v>
+        <v>429747.2376006473</v>
       </c>
       <c r="J6" t="n">
-        <v>212563.4144577266</v>
+        <v>212216.0352033697</v>
       </c>
       <c r="K6" t="n">
-        <v>430094.6168550039</v>
+        <v>429747.2376006472</v>
       </c>
       <c r="L6" t="n">
-        <v>430094.6168550042</v>
+        <v>429747.2376006474</v>
       </c>
       <c r="M6" t="n">
-        <v>345039.588919492</v>
+        <v>344692.2096651351</v>
       </c>
       <c r="N6" t="n">
-        <v>430094.616855004</v>
+        <v>429747.2376006471</v>
       </c>
       <c r="O6" t="n">
-        <v>430094.616855004</v>
+        <v>429747.237600647</v>
       </c>
       <c r="P6" t="n">
-        <v>430094.6168550039</v>
+        <v>429747.2376006471</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>346.4067620467832</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.9183408758533</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>13.40079581439431</v>
+        <v>209.2755498368811</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>272.5496012734502</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.2509233122021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>90.9345092306587</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>258.3350415524673</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>89.49460226062249</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.4002454361144</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>19.11742609857878</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>48.25894106114171</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28538,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32235,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779087</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334643</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>476.200092541956</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1788379.091160286</v>
+        <v>1790139.621463071</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>35.52360802547854</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>35.52360802547786</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>42.86209348694693</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>128.4038356853009</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>92.72329049755739</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>83.83622493438818</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>27.87679665314561</v>
+        <v>124.2292170629838</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>168.5177247035057</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>126.5388824951713</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>171.2900082150275</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>80.08971311158757</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>19.72264368952145</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.24347904696278</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>153.5899618586515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>79.11532312205786</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>26.13627195705873</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>19.86507844888302</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>1.839588425940237</v>
+        <v>146.053516066753</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>104.8913819999787</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>227.0037515253178</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703239</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>78.68827782033955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>219.2450387532249</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>154.8277789621977</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.299101484277</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.299101484277</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.033402877527</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2719.924496445356</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.038273524211</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="Y2" t="n">
-        <v>2012.898941548399</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4397,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>1091.613680441807</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W4" t="n">
-        <v>1091.613680441807</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>1091.613680441807</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="C5" t="n">
-        <v>828.1105664881544</v>
+        <v>1645.815527067831</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881544</v>
+        <v>1287.54982846108</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>901.761575862836</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>490.7756710732285</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1899.13616763077</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="V7" t="n">
-        <v>1644.451679424883</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W7" t="n">
-        <v>1355.034509387922</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X7" t="n">
-        <v>1127.044958489905</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,16 +4834,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3155.385897666236</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3155.385897666236</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V8" t="n">
-        <v>2824.323010322666</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W8" t="n">
-        <v>2824.323010322666</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
         <v>2824.323010322666</v>
@@ -4880,28 +4880,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
         <v>511.4317969248226</v>
@@ -4950,31 +4950,31 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1754.274337770284</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1465.171470895927</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1210.48698269004</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>921.0698126530797</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>693.0802617550623</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.0802617550623</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,31 +5059,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.3929232910542</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>782.4567403631473</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D16" t="n">
-        <v>632.3401009508116</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E16" t="n">
-        <v>484.4270073684185</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F16" t="n">
-        <v>337.5370598705081</v>
+        <v>318.834458340125</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>151.638359055005</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.240688199802</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.823518162841</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.833967264824</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.041388121294</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235161</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.4315576023</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396413</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359452</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614346</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098242</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819173</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695815</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3896878871884</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F25" t="n">
-        <v>369.499740389278</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="G25" t="n">
-        <v>202.303641104158</v>
+        <v>255.5942300127263</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>113.8823988549244</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640064</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6205,43 +6205,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6487,28 +6487,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1815.210065545664</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1560.525577339777</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400685</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6864,46 +6864,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797713</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W34" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138384</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703082</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924455</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7496,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7785,19 +7785,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68.52575990662478</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014946027474</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.05123379926111</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>139.4693302300369</v>
       </c>
     </row>
     <row r="20">
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.4007578696825</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>250.2980548978878</v>
+        <v>106.084127257075</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>43.72409101823369</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>59.18072286392632</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.2291039219449</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>207.8347205162515</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>32.89260457060311</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>70.88187642683945</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319403</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92793.84288319404</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319401</v>
       </c>
-      <c r="C4" t="n">
-        <v>92793.842883194</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319398</v>
-      </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
@@ -26441,16 +26441,16 @@
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975269.3345137885</v>
+        <v>-975269.3345137882</v>
       </c>
       <c r="C6" t="n">
-        <v>353475.4112138043</v>
+        <v>353475.4112138039</v>
       </c>
       <c r="D6" t="n">
-        <v>353475.411213804</v>
+        <v>353475.4112138044</v>
       </c>
       <c r="E6" t="n">
-        <v>104334.775793292</v>
+        <v>104647.4171222132</v>
       </c>
       <c r="F6" t="n">
-        <v>429747.2376006473</v>
+        <v>430059.8789295685</v>
       </c>
       <c r="G6" t="n">
-        <v>429747.2376006472</v>
+        <v>430059.8789295684</v>
       </c>
       <c r="H6" t="n">
-        <v>429747.2376006472</v>
+        <v>430059.8789295679</v>
       </c>
       <c r="I6" t="n">
-        <v>429747.2376006473</v>
+        <v>430059.8789295686</v>
       </c>
       <c r="J6" t="n">
-        <v>212216.0352033697</v>
+        <v>212528.6765322912</v>
       </c>
       <c r="K6" t="n">
-        <v>429747.2376006472</v>
+        <v>430059.8789295687</v>
       </c>
       <c r="L6" t="n">
-        <v>429747.2376006474</v>
+        <v>430059.8789295682</v>
       </c>
       <c r="M6" t="n">
-        <v>344692.2096651351</v>
+        <v>345004.8509940568</v>
       </c>
       <c r="N6" t="n">
-        <v>429747.2376006471</v>
+        <v>430059.8789295687</v>
       </c>
       <c r="O6" t="n">
-        <v>429747.237600647</v>
+        <v>430059.8789295686</v>
       </c>
       <c r="P6" t="n">
-        <v>429747.2376006471</v>
+        <v>430059.8789295682</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>346.4067620467832</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>292.228650444657</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>209.2755498368811</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>158.1191626512901</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>272.5496012734502</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>327.0855007190653</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>258.3350415524673</v>
+        <v>161.9826211426291</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>35.4002454361144</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>124.4562894637306</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>48.25894106114171</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-4.11318703381928e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-3.460345829981158e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34216,10 +34216,10 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34228,13 +34228,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060416</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191281</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010452</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37481,7 +37481,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066215</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37876,13 +37876,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
